--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>-0.264268133811493</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.940040134882964</v>
+        <v>-1.970293061350638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04195105773209452</v>
+        <v>0.0314416315737337</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2927781075415429</v>
+        <v>-0.2947623128970878</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2364313611238834</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.044918309349118</v>
+        <v>-2.082897080289835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02314855841737229</v>
+        <v>0.005114044398468041</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2942936374599061</v>
+        <v>-0.2948163346764514</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2197815126623736</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.169495452657812</v>
+        <v>-2.216301674356163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05063250368063764</v>
+        <v>0.03761179480591386</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3066456443089937</v>
+        <v>-0.3141824125542644</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2126834378075145</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.312035567628955</v>
+        <v>-2.378528347761074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06980731525854159</v>
+        <v>0.05841602005327191</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3363474026223494</v>
+        <v>-0.3387827628379851</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2072002957761118</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.509941436231402</v>
+        <v>-2.595102391253879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1029956684129872</v>
+        <v>0.103271617502169</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3170952084956273</v>
+        <v>-0.3229441611478075</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1996063761556553</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.441223542808739</v>
+        <v>-2.534481924543396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2291613440445897</v>
+        <v>0.2289248162538625</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3800714628007922</v>
+        <v>-0.3831098228779732</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1887649216485307</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.304600272726003</v>
+        <v>-2.408527225860929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3221123856561102</v>
+        <v>0.3220904849347466</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4011092957426956</v>
+        <v>-0.4077992360952393</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1713616718835393</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.027171424804123</v>
+        <v>-2.13507627896273</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4393133660095332</v>
+        <v>0.4419443726693508</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3485373441333461</v>
+        <v>-0.366849267289523</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1439187920245606</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.673094432253809</v>
+        <v>-1.779739264909962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5168346193963307</v>
+        <v>0.5306992360675996</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2645320171748232</v>
+        <v>-0.2849303490529086</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1035394747147644</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.11425372521805</v>
+        <v>-1.214382363244477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.497830633445063</v>
+        <v>0.5134400075849679</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2142552611643821</v>
+        <v>-0.2351733701628311</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04852157283593968</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5435939288863846</v>
+        <v>-0.6434261771503578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4013360551169071</v>
+        <v>0.4163555698280849</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1147033421338634</v>
+        <v>-0.1351688362241306</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02304892157969315</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02157170647919089</v>
+        <v>-0.09203171537823314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2635600770663987</v>
+        <v>0.2791548507253945</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01099365806055737</v>
+        <v>-0.01141516003870934</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1124109751861661</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6185766105632124</v>
+        <v>0.5011011411686985</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01891250698552551</v>
+        <v>-0.01234959081689091</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1527833083129738</v>
+        <v>0.1282325996643441</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2167148446382261</v>
       </c>
       <c r="E15" t="n">
-        <v>1.15591664941225</v>
+        <v>1.046151693985825</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2393053062601027</v>
+        <v>-0.236485953396558</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3060649970889327</v>
+        <v>0.2781371972060311</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3263603695809765</v>
       </c>
       <c r="E16" t="n">
-        <v>1.705271424001375</v>
+        <v>1.601970101473403</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6221897776680908</v>
+        <v>-0.6322714097358153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4622127602673453</v>
+        <v>0.4440176409584411</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4335676472996862</v>
       </c>
       <c r="E17" t="n">
-        <v>2.308078559198668</v>
+        <v>2.209745780324058</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8402611004781232</v>
+        <v>-0.8416612865973045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5970467414146727</v>
+        <v>0.5858467125093121</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5388319630548073</v>
       </c>
       <c r="E18" t="n">
-        <v>2.786791827005358</v>
+        <v>2.680338260649113</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.144597904691405</v>
+        <v>-1.161978317165582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7589938156101746</v>
+        <v>0.7407607350509069</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6464097875436557</v>
       </c>
       <c r="E19" t="n">
-        <v>3.221033490011059</v>
+        <v>3.108405380278362</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.433284453418237</v>
+        <v>-1.458655709093957</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9408282048519441</v>
+        <v>0.9244187243582211</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7595729559495344</v>
       </c>
       <c r="E20" t="n">
-        <v>3.534364190464339</v>
+        <v>3.424114499071732</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.708440736486617</v>
+        <v>-1.72713081209834</v>
       </c>
       <c r="G20" t="n">
-        <v>1.121512076198077</v>
+        <v>1.104137503916264</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8735772333114401</v>
       </c>
       <c r="E21" t="n">
-        <v>3.90155606499124</v>
+        <v>3.789817124545906</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.975136770892227</v>
+        <v>-1.993591778761314</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253409900634587</v>
+        <v>1.232604215339138</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9824741319569837</v>
       </c>
       <c r="E22" t="n">
-        <v>4.255192853042145</v>
+        <v>4.138288262451177</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.251205584017426</v>
+        <v>-2.280290472012373</v>
       </c>
       <c r="G22" t="n">
-        <v>1.408269901396819</v>
+        <v>1.385452269832097</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.078856202501092</v>
       </c>
       <c r="E23" t="n">
-        <v>4.371090010450387</v>
+        <v>4.243763596586511</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.545470246475575</v>
+        <v>-2.580696096740883</v>
       </c>
       <c r="G23" t="n">
-        <v>1.544747896694509</v>
+        <v>1.528807091637968</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.159885835644119</v>
       </c>
       <c r="E24" t="n">
-        <v>4.567078105885425</v>
+        <v>4.443280628257276</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.861956840877353</v>
+        <v>-2.906786887484659</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624072309473579</v>
+        <v>1.610574164873128</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.22435924673131</v>
       </c>
       <c r="E25" t="n">
-        <v>4.590765926112327</v>
+        <v>4.466302666554725</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.086626851034247</v>
+        <v>-3.137931480900688</v>
       </c>
       <c r="G25" t="n">
-        <v>1.713065160710646</v>
+        <v>1.696062900692014</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.273400529779727</v>
       </c>
       <c r="E26" t="n">
-        <v>4.645184838556677</v>
+        <v>4.510936336693804</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.226422805618528</v>
+        <v>-3.285419698851921</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83312783532225</v>
+        <v>1.817651325558618</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.307819574886794</v>
       </c>
       <c r="E27" t="n">
-        <v>4.637167714489497</v>
+        <v>4.511448813573713</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.36201893186931</v>
+        <v>-3.429509654871564</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882405918438509</v>
+        <v>1.860001480483515</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.32846617770386</v>
       </c>
       <c r="E28" t="n">
-        <v>4.587575721033692</v>
+        <v>4.468327753256815</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.431841351672746</v>
+        <v>-3.510334997088088</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864348043650151</v>
+        <v>1.848820432203337</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.336664237263487</v>
       </c>
       <c r="E29" t="n">
-        <v>4.490793513231627</v>
+        <v>4.375223406595749</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.489804530857775</v>
+        <v>-3.559036361208439</v>
       </c>
       <c r="G29" t="n">
-        <v>1.903764961960413</v>
+        <v>1.887354021418599</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.331944694828364</v>
       </c>
       <c r="E30" t="n">
-        <v>4.439395440287369</v>
+        <v>4.335917451940396</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.5997863034257</v>
+        <v>-3.670704489321363</v>
       </c>
       <c r="G30" t="n">
-        <v>1.929251561435315</v>
+        <v>1.908734965661866</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.315815517055693</v>
       </c>
       <c r="E31" t="n">
-        <v>4.249235856831238</v>
+        <v>4.168642662261168</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.547409268236487</v>
+        <v>-3.611270311684743</v>
       </c>
       <c r="G31" t="n">
-        <v>1.913872874893774</v>
+        <v>1.901920921221595</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.289575389492472</v>
       </c>
       <c r="E32" t="n">
-        <v>4.132788261292723</v>
+        <v>4.067026235230105</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.473378989835052</v>
+        <v>-3.532939461631536</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825112171303161</v>
+        <v>1.808439882153075</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.256593070420009</v>
       </c>
       <c r="E33" t="n">
-        <v>3.906758216339147</v>
+        <v>3.861169674748615</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.478491348225369</v>
+        <v>-3.541402630390489</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786139107612535</v>
+        <v>1.774429521923447</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.219084953465754</v>
       </c>
       <c r="E34" t="n">
-        <v>3.740019264309283</v>
+        <v>3.704052439637838</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.440661502189925</v>
+        <v>-3.501301679549636</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688660456871107</v>
+        <v>1.676816546757655</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.180468608031643</v>
       </c>
       <c r="E35" t="n">
-        <v>3.642250063997764</v>
+        <v>3.6119876472175</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.35196066057104</v>
+        <v>-3.408465981737297</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623168539705306</v>
+        <v>1.615103234051127</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.141388582097272</v>
       </c>
       <c r="E36" t="n">
-        <v>3.438001016464364</v>
+        <v>3.413540830797371</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.274927793270651</v>
+        <v>-3.311219478642323</v>
       </c>
       <c r="G36" t="n">
-        <v>1.527855140282695</v>
+        <v>1.518075738169789</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.102854004270139</v>
       </c>
       <c r="E37" t="n">
-        <v>3.263874221094502</v>
+        <v>3.248666360179597</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.196314423911854</v>
+        <v>-3.231006626599936</v>
       </c>
       <c r="G37" t="n">
-        <v>1.403129072068729</v>
+        <v>1.397150175136458</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.063851602357558</v>
       </c>
       <c r="E38" t="n">
-        <v>3.14334871123808</v>
+        <v>3.12096617400445</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.078070969221522</v>
+        <v>-3.107463927363651</v>
       </c>
       <c r="G38" t="n">
-        <v>1.345033758531472</v>
+        <v>1.332940180194475</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.022605515438185</v>
       </c>
       <c r="E39" t="n">
-        <v>2.819036989093076</v>
+        <v>2.81579860242744</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.946352730700194</v>
+        <v>-2.973895807911141</v>
       </c>
       <c r="G39" t="n">
-        <v>1.214391575453143</v>
+        <v>1.204997626036237</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9778810042794953</v>
       </c>
       <c r="E40" t="n">
-        <v>2.56672023831078</v>
+        <v>2.567107151054871</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.84257470247054</v>
+        <v>-2.865996063920852</v>
       </c>
       <c r="G40" t="n">
-        <v>1.189890508439605</v>
+        <v>1.181632476437425</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9277743751873458</v>
       </c>
       <c r="E41" t="n">
-        <v>2.392359835246372</v>
+        <v>2.385499069267193</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758310216975881</v>
+        <v>-2.776382692245149</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069140151177182</v>
+        <v>1.058110947898458</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8728240730551903</v>
       </c>
       <c r="E42" t="n">
-        <v>2.165570565285524</v>
+        <v>2.154122328204709</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.661428725903634</v>
+        <v>-2.665757768493179</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9754751460492075</v>
+        <v>0.9686289805509366</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8126324352554445</v>
       </c>
       <c r="E43" t="n">
-        <v>2.04909084868901</v>
+        <v>2.038616463684831</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.586258879967245</v>
+        <v>-2.592612279234834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8701983784542358</v>
+        <v>0.8616483368338744</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7494555034835161</v>
       </c>
       <c r="E44" t="n">
-        <v>1.84357155931652</v>
+        <v>1.829466034710251</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.573955784729203</v>
+        <v>-2.585587987869473</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7955753205278921</v>
+        <v>0.7858630806271675</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6841643587586361</v>
       </c>
       <c r="E45" t="n">
-        <v>1.607118231041947</v>
+        <v>1.585639463576589</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.466968570795732</v>
+        <v>-2.474971094382002</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6932814311826468</v>
+        <v>0.6801380782682868</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6187761486446939</v>
       </c>
       <c r="E46" t="n">
-        <v>1.413524614475999</v>
+        <v>1.386894797345915</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.42211370337088</v>
+        <v>-2.435957879368877</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6703134146645622</v>
+        <v>0.6562589917414751</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5541453838017762</v>
       </c>
       <c r="E47" t="n">
-        <v>1.134202814204256</v>
+        <v>1.108792137230081</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.360611367613488</v>
+        <v>-2.369598693637076</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5599878007712281</v>
+        <v>0.5502259192354125</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4914408900599465</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9780389904968432</v>
+        <v>0.9474524430403968</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.309708250972047</v>
+        <v>-2.316364610218499</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4733938085475241</v>
+        <v>0.4639326969184357</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.431424927653868</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7559058138979028</v>
+        <v>0.7236022498865479</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.248765113633472</v>
+        <v>-2.257989697471833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3987444697555442</v>
+        <v>0.3926254082065458</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3753442450613865</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6338560138345719</v>
+        <v>0.5904736049094018</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.19972355830794</v>
+        <v>-2.206336116111665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3247112712579277</v>
+        <v>0.3158254185766574</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3234725704223663</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4713862424225246</v>
+        <v>0.4094991839931776</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.151108337024953</v>
+        <v>-2.167649221846858</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2664728730077615</v>
+        <v>0.2621204696487627</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2767063114851505</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3543736082728288</v>
+        <v>0.2825056610940299</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.074850025236792</v>
+        <v>-2.090623654786924</v>
       </c>
       <c r="G52" t="n">
-        <v>0.235121260351679</v>
+        <v>0.2220844909479552</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2349862615386605</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2212113821895918</v>
+        <v>0.1477081811489752</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.024881339373533</v>
+        <v>-2.036868334199893</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1369841279212508</v>
+        <v>0.1295072216477074</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1971873625270587</v>
       </c>
       <c r="E54" t="n">
-        <v>0.183149388507693</v>
+        <v>0.09980108319007898</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.976047110876909</v>
+        <v>-1.986771164104634</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07693527003835784</v>
+        <v>0.06024838040736233</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1630380622217057</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.003148367747984286</v>
+        <v>-0.09763683999923164</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.964655815671639</v>
+        <v>-1.973468665948364</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03456613448827831</v>
+        <v>0.01471970078855637</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1306174214915404</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1219481007609524</v>
+        <v>-0.2179243620168357</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.855600443617396</v>
+        <v>-1.855798280133714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.007139131100558406</v>
+        <v>-0.01675163581098063</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1001869139804986</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2770344089772744</v>
+        <v>-0.3752868852068844</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.775867217372872</v>
+        <v>-1.781806693006688</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04503130728379122</v>
+        <v>-0.06582969233878563</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07100115625183791</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3159943322350821</v>
+        <v>-0.4241284139439622</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.762871329315694</v>
+        <v>-1.771361508964328</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1278744359619508</v>
+        <v>-0.1457060032962187</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04379224854738829</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5480032741209289</v>
+        <v>-0.6656933705848064</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.719394017264614</v>
+        <v>-1.723496752400068</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1479865984142181</v>
+        <v>-0.1684637728892126</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.01885314607199637</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5686089328279234</v>
+        <v>-0.6908207982293451</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.648488241777724</v>
+        <v>-1.646612079980907</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1903703344452067</v>
+        <v>-0.2047284473712029</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.003172452571269201</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7079836635379768</v>
+        <v>-0.8522042938617563</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.655427850353813</v>
+        <v>-1.655400109440086</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2348039779958312</v>
+        <v>-0.2537685426486442</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.02177454469260673</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8747342959525685</v>
+        <v>-1.024346883876074</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.593904343899103</v>
+        <v>-1.593202060767376</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2902405439595436</v>
+        <v>-0.306464598345721</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03757223705815937</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9493164725323666</v>
+        <v>-1.107557944673142</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.62852500423073</v>
+        <v>-1.629017040437366</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3494060727474367</v>
+        <v>-0.3644212073143418</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.05176369834435793</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.149272978678495</v>
+        <v>-1.317891012601359</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.594822714148284</v>
+        <v>-1.59513662448783</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3912933924275164</v>
+        <v>-0.4141621256754194</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.0653580135835566</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.319183155161813</v>
+        <v>-1.494899942902675</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.541855089506298</v>
+        <v>-1.5350936067973</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4488397278825919</v>
+        <v>-0.4677531908522232</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.0786686610489204</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.444426080399961</v>
+        <v>-1.627270822920639</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.574574767223562</v>
+        <v>-1.563237493797656</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.448277609367592</v>
+        <v>-0.4745570149558577</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.09225846803565013</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.583517561780378</v>
+        <v>-1.771665198967237</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.540269477279572</v>
+        <v>-1.525625194927757</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.498539764897124</v>
+        <v>-0.5269610610347527</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1064904589643008</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.73209643565552</v>
+        <v>-1.925968191382786</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.572577421435199</v>
+        <v>-1.541244789404299</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5095952490414847</v>
+        <v>-0.5388005910039314</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1210885320811983</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.831251221605312</v>
+        <v>-2.03064560923644</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.587978008698104</v>
+        <v>-1.551543968637568</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5155318045791194</v>
+        <v>-0.5488252811961105</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1354250617802534</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.955783103423187</v>
+        <v>-2.163705631953313</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.59637474526892</v>
+        <v>-1.553493132838932</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5962564034773705</v>
+        <v>-0.6324626760357244</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1478283020745317</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.03171363441494</v>
+        <v>-2.241679500248292</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.609240689046008</v>
+        <v>-1.56097733935293</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6373552971883595</v>
+        <v>-0.6827058509400745</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1568134113510916</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.117013294006053</v>
+        <v>-2.32418243772127</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.607785021099372</v>
+        <v>-1.563593745531838</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6454600241409937</v>
+        <v>-0.6777519077676213</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.161036230227867</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.10264350069533</v>
+        <v>-2.308617595048138</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.598283028123738</v>
+        <v>-1.56049552348293</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6951775817326167</v>
+        <v>-0.7337170111402427</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1604237361694389</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.146104752217409</v>
+        <v>-2.349252923490263</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.587046498016105</v>
+        <v>-1.543173512932389</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6937817757577079</v>
+        <v>-0.728066625028426</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1548486646334527</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.044338670257027</v>
+        <v>-2.246694765440564</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.540574627330571</v>
+        <v>-1.491975466576585</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7148342091805204</v>
+        <v>-0.7480138020464207</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1446285117316959</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.023614747654669</v>
+        <v>-2.216604634335026</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.426663135325966</v>
+        <v>-1.370709712338072</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7170038406436108</v>
+        <v>-0.7511821064036925</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1298008527701162</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.874512446538936</v>
+        <v>-2.059724657039023</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.440005054780689</v>
+        <v>-1.384426864152159</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.677405876370076</v>
+        <v>-0.7120104761727031</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1109703459923874</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.727025688635794</v>
+        <v>-1.903161510178747</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.403819222895608</v>
+        <v>-1.344893141994624</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6864800752550735</v>
+        <v>-0.722854253343882</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08889605109088775</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.561114583873475</v>
+        <v>-1.721389903004886</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.349944908389168</v>
+        <v>-1.280049486181187</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6593217207160809</v>
+        <v>-0.6916880667953449</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06500844427712474</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.366116401044073</v>
+        <v>-1.525359466175212</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337927252552899</v>
+        <v>-1.270979667440462</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5913871430941899</v>
+        <v>-0.6224438260359089</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.0402039319922646</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.208204899771842</v>
+        <v>-1.356193914218257</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.224972092047838</v>
+        <v>-1.161214712014037</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5344277469716598</v>
+        <v>-0.5656742361651969</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.01560103303639377</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9918082521220825</v>
+        <v>-1.138032068426589</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.194369484062392</v>
+        <v>-1.137029015388134</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4955379060222157</v>
+        <v>-0.5247403278884806</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.007648547918466811</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7239770303257907</v>
+        <v>-0.8605586890379359</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.108785845117596</v>
+        <v>-1.047898919630522</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4664245470894963</v>
+        <v>-0.495597767993943</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.02917474914458697</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4165916456986914</v>
+        <v>-0.536486414779841</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.045494220424795</v>
+        <v>-0.9756513599480868</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4118202085376018</v>
+        <v>-0.4379565294129584</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04796023462669944</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1909645740182066</v>
+        <v>-0.2957274046851784</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9849431059986298</v>
+        <v>-0.9198935834043744</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3747700281827027</v>
+        <v>-0.3879498822993355</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06334943868305079</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07406043534735862</v>
+        <v>-0.01785251207152579</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9315812683720986</v>
+        <v>-0.8595877570574816</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2840397197174543</v>
+        <v>-0.3029984441779038</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.07382646640103277</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3231256590312008</v>
+        <v>0.2387699205308599</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8274082971338539</v>
+        <v>-0.7593218745105085</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2199742695364715</v>
+        <v>-0.23575008915874</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07879031303725047</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5279835466185094</v>
+        <v>0.4453185438074407</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6934795458028898</v>
+        <v>-0.639729335384177</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1889526277489344</v>
+        <v>-0.2041429680867485</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07752683616830351</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8064599790456165</v>
+        <v>0.7300250014384552</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5376529932044771</v>
+        <v>-0.4861760776633091</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1127643982691367</v>
+        <v>-0.1277707725474963</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07009065708379286</v>
       </c>
       <c r="E90" t="n">
-        <v>1.053581878720459</v>
+        <v>0.97964066325257</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4004405937170594</v>
+        <v>-0.3523758105643451</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05966828939515093</v>
+        <v>-0.07231084581432935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05795673996552732</v>
       </c>
       <c r="E91" t="n">
-        <v>1.229796542860321</v>
+        <v>1.160407757339885</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2213510948861984</v>
+        <v>-0.1719372272974844</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03531030709452111</v>
+        <v>-0.04168195696324667</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04288177085638384</v>
       </c>
       <c r="E92" t="n">
-        <v>1.349168614724925</v>
+        <v>1.295181876515485</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.07269775855842016</v>
+        <v>-0.02204285009243376</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03655718816415713</v>
+        <v>-0.04189366393642843</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02697979508302683</v>
       </c>
       <c r="E93" t="n">
-        <v>1.451767654121171</v>
+        <v>1.407872768316091</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09440766554226225</v>
+        <v>0.1335997364465245</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0361994763818845</v>
+        <v>-0.0418557026860648</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0128629917683939</v>
       </c>
       <c r="E94" t="n">
-        <v>1.454692130447261</v>
+        <v>1.434671951024721</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2326245781162251</v>
+        <v>0.2672204176303067</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05769284432815146</v>
+        <v>-0.06816722933233046</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.003297219505453238</v>
       </c>
       <c r="E95" t="n">
-        <v>1.493860840582068</v>
+        <v>1.482928000477344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3980217459505443</v>
+        <v>0.4241989481724464</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08153688970078142</v>
+        <v>-0.08715369470650719</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.002680810288411598</v>
       </c>
       <c r="E96" t="n">
-        <v>1.431865738593994</v>
+        <v>1.437266456482265</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4409515399675328</v>
+        <v>0.463656747829254</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1180015907712262</v>
+        <v>-0.1246214488154062</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.006365031409297785</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360305861562377</v>
+        <v>1.364445097900103</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5186596795099665</v>
+        <v>0.5356926005385074</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1532004301468531</v>
+        <v>-0.1624308541775779</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01174253785806701</v>
       </c>
       <c r="E98" t="n">
-        <v>1.26882216828222</v>
+        <v>1.272793499089491</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5433578530157781</v>
+        <v>0.5594534231699555</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1930977042790242</v>
+        <v>-0.1972018994625686</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01983727547759052</v>
       </c>
       <c r="E99" t="n">
-        <v>1.206260567634873</v>
+        <v>1.222807292649141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5682750337352259</v>
+        <v>0.576413341793951</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2161153624321998</v>
+        <v>-0.2133120700976551</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0336758777339786</v>
       </c>
       <c r="E100" t="n">
-        <v>1.109206790887899</v>
+        <v>1.116410668168442</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5418043618470512</v>
+        <v>0.5463830726601409</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2325584240320136</v>
+        <v>-0.2299186570836507</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05161999355346387</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020894322061195</v>
+        <v>1.034262522381555</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5272345419478733</v>
+        <v>0.5293778925453273</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2245193992434703</v>
+        <v>-0.2212255307503803</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0787245192264118</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9521786187106683</v>
+        <v>0.9624544371744838</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4678397856097074</v>
+        <v>0.475538619193069</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.251118555363645</v>
+        <v>-0.2494730811651909</v>
       </c>
     </row>
   </sheetData>
